--- a/LoowooTech.Stock/Excels/ExcelTen3.xlsx
+++ b/LoowooTech.Stock/Excels/ExcelTen3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -96,37 +96,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,15 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +138,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,9 +159,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,15 +199,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +229,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,13 +252,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,169 +408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +611,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +635,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,45 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -695,20 +706,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,133 +732,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:BO10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+      <selection activeCell="C10" sqref="C10:BO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2129,71 +2129,71 @@
         <v>15</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="8"/>
-      <c r="BK10" s="8"/>
-      <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-      <c r="BO10" s="8"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="22"/>
+      <c r="AY10" s="22"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="22"/>
+      <c r="BC10" s="22"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="22"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="22"/>
+      <c r="BN10" s="22"/>
+      <c r="BO10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="34">
